--- a/Data/Belgorod Demographics.xlsx
+++ b/Data/Belgorod Demographics.xlsx
@@ -5,13 +5,14 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист 1 - Демографическая ситуац" sheetId="1" r:id="rId4"/>
+    <sheet name="Белгородская область" sheetId="1" r:id="rId4"/>
+    <sheet name="Курская область" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Демографическая ситуация в Белгородской области</t>
   </si>
@@ -48,6 +49,9 @@
   <si>
     <t>Число выбывших</t>
   </si>
+  <si>
+    <t>Демографическая ситуация в Курской области</t>
+  </si>
 </sst>
 </file>
 
@@ -56,7 +60,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -78,8 +82,14 @@
       <color indexed="9"/>
       <name val="Helvetica Neue Medium"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,8 +102,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -326,13 +348,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -394,6 +521,30 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -420,6 +571,10 @@
       <rgbColor rgb="ffa6a29f"/>
       <rgbColor rgb="ffe3e3e3"/>
       <rgbColor rgb="fff4f9f8"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1935,4 +2090,357 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="8" width="16.3516" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="44.25" customHeight="1">
+      <c r="A2" t="s" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="22">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="22">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="22">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s" s="22">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s" s="22">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s" s="22">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="23">
+        <v>2010</v>
+      </c>
+      <c r="B3" s="24">
+        <v>1134990</v>
+      </c>
+      <c r="C3" s="25">
+        <v>6467</v>
+      </c>
+      <c r="D3" s="25">
+        <v>6120</v>
+      </c>
+      <c r="E3" s="25">
+        <v>9961</v>
+      </c>
+      <c r="F3" s="25">
+        <v>9891</v>
+      </c>
+      <c r="G3" s="25">
+        <v>902</v>
+      </c>
+      <c r="H3" s="25">
+        <v>16498</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="26">
+        <v>2011</v>
+      </c>
+      <c r="B4" s="27">
+        <v>1125648</v>
+      </c>
+      <c r="C4" s="28">
+        <v>6620</v>
+      </c>
+      <c r="D4" s="28">
+        <v>6306</v>
+      </c>
+      <c r="E4" s="28">
+        <v>9593</v>
+      </c>
+      <c r="F4" s="28">
+        <v>9308</v>
+      </c>
+      <c r="G4" s="28">
+        <v>1711</v>
+      </c>
+      <c r="H4" s="28">
+        <v>26013</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="26">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="27">
+        <v>1121563</v>
+      </c>
+      <c r="C5" s="28">
+        <v>6865</v>
+      </c>
+      <c r="D5" s="28">
+        <v>6537</v>
+      </c>
+      <c r="E5" s="28">
+        <v>9344</v>
+      </c>
+      <c r="F5" s="28">
+        <v>9283</v>
+      </c>
+      <c r="G5" s="28">
+        <v>1828</v>
+      </c>
+      <c r="H5" s="28">
+        <v>32356</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="26">
+        <v>2013</v>
+      </c>
+      <c r="B6" s="27">
+        <v>1119262</v>
+      </c>
+      <c r="C6" s="28">
+        <v>6777</v>
+      </c>
+      <c r="D6" s="28">
+        <v>6253</v>
+      </c>
+      <c r="E6" s="28">
+        <v>8915</v>
+      </c>
+      <c r="F6" s="28">
+        <v>9136</v>
+      </c>
+      <c r="G6" s="28">
+        <v>2414</v>
+      </c>
+      <c r="H6" s="28">
+        <v>37098</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="26">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="27">
+        <v>1118915</v>
+      </c>
+      <c r="C7" s="28">
+        <v>6756</v>
+      </c>
+      <c r="D7" s="28">
+        <v>6313</v>
+      </c>
+      <c r="E7" s="28">
+        <v>9302</v>
+      </c>
+      <c r="F7" s="28">
+        <v>9206</v>
+      </c>
+      <c r="G7" s="28">
+        <v>2034</v>
+      </c>
+      <c r="H7" s="28">
+        <v>32949</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="26">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="27">
+        <v>1117378</v>
+      </c>
+      <c r="C8" s="28">
+        <v>6614</v>
+      </c>
+      <c r="D8" s="28">
+        <v>6418</v>
+      </c>
+      <c r="E8" s="28">
+        <v>9106</v>
+      </c>
+      <c r="F8" s="28">
+        <v>9099</v>
+      </c>
+      <c r="G8" s="28">
+        <v>2425</v>
+      </c>
+      <c r="H8" s="28">
+        <v>34188</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="26">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="27">
+        <v>1120019</v>
+      </c>
+      <c r="C9" s="28">
+        <v>6348</v>
+      </c>
+      <c r="D9" s="28">
+        <v>6055</v>
+      </c>
+      <c r="E9" s="28">
+        <v>8964</v>
+      </c>
+      <c r="F9" s="28">
+        <v>9051</v>
+      </c>
+      <c r="G9" s="28">
+        <v>2509</v>
+      </c>
+      <c r="H9" s="28">
+        <v>36755</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="26">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="27">
+        <v>1122893</v>
+      </c>
+      <c r="C10" s="28">
+        <v>5508</v>
+      </c>
+      <c r="D10" s="28">
+        <v>5224</v>
+      </c>
+      <c r="E10" s="28">
+        <v>8576</v>
+      </c>
+      <c r="F10" s="28">
+        <v>8824</v>
+      </c>
+      <c r="G10" s="28">
+        <v>2681</v>
+      </c>
+      <c r="H10" s="28">
+        <v>41863</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="26">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="27">
+        <v>1115237</v>
+      </c>
+      <c r="C11" s="28">
+        <v>5271</v>
+      </c>
+      <c r="D11" s="28">
+        <v>4985</v>
+      </c>
+      <c r="E11" s="28">
+        <v>8263</v>
+      </c>
+      <c r="F11" s="28">
+        <v>8893</v>
+      </c>
+      <c r="G11" s="28">
+        <v>2661</v>
+      </c>
+      <c r="H11" s="28">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="26">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="27">
+        <v>1107041</v>
+      </c>
+      <c r="C12" s="28">
+        <v>4760</v>
+      </c>
+      <c r="D12" s="28">
+        <v>4486</v>
+      </c>
+      <c r="E12" s="28">
+        <v>8092</v>
+      </c>
+      <c r="F12" s="28">
+        <v>8470</v>
+      </c>
+      <c r="G12" s="28">
+        <v>2617</v>
+      </c>
+      <c r="H12" s="28">
+        <v>40995</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="26">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="27">
+        <v>1104008</v>
+      </c>
+      <c r="C13" s="28">
+        <v>4763</v>
+      </c>
+      <c r="D13" s="28">
+        <v>4373</v>
+      </c>
+      <c r="E13" s="28">
+        <v>9531</v>
+      </c>
+      <c r="F13" s="28">
+        <v>9890</v>
+      </c>
+      <c r="G13" s="28">
+        <v>2593</v>
+      </c>
+      <c r="H13" s="28">
+        <v>32126</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>